--- a/DB/Vorlagen für BSP-Daten/Event_Tag.xlsx
+++ b/DB/Vorlagen für BSP-Daten/Event_Tag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henri\Documents\GitHub\location-based-recommendations\DB\Vorlagen für BSP-Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5BA1C8-B109-41AE-8C3E-4A4BBC7AE0D2}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30AB45EA-C399-426D-93FC-4BB3F33DA5DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="11490" windowHeight="4590" xr2:uid="{60EB3823-BC5E-4297-9662-BC498EAEC4A5}"/>
+    <workbookView xWindow="0" yWindow="1350" windowWidth="11490" windowHeight="4590" xr2:uid="{60EB3823-BC5E-4297-9662-BC498EAEC4A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -382,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{332B3132-3DDD-4046-823F-490ECF08A1A2}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,6 +398,70 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
